--- a/results.xlsx
+++ b/results.xlsx
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>229.4</v>
+        <v>113.29</v>
       </c>
       <c r="E2">
         <v>0.23</v>
       </c>
       <c r="F2">
-        <v>10.65</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>253.02</v>
+        <v>116.31</v>
       </c>
       <c r="E3">
         <v>0.23</v>
       </c>
       <c r="F3">
-        <v>14.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4046.59</v>
+        <v>1827.88</v>
       </c>
       <c r="E4">
         <v>2.29</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4292.84</v>
+        <v>1730.13</v>
       </c>
       <c r="E5">
         <v>2.29</v>
       </c>
       <c r="F5">
-        <v>8.1</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>84.56</v>
+        <v>40.51</v>
       </c>
       <c r="E6">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F6">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,13 +538,13 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>83.81</v>
+        <v>38.96</v>
       </c>
       <c r="E7">
         <v>0.49</v>
       </c>
       <c r="F7">
-        <v>7.65</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,13 +558,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>859.84</v>
+        <v>358.56</v>
       </c>
       <c r="E8">
-        <v>4.58</v>
+        <v>3.96</v>
       </c>
       <c r="F8">
-        <v>13.7</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -578,13 +578,13 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>785.89</v>
+        <v>361.71</v>
       </c>
       <c r="E9">
-        <v>4.09</v>
+        <v>5.06</v>
       </c>
       <c r="F9">
-        <v>8.85</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
